--- a/external_resources/final_result.xlsx
+++ b/external_resources/final_result.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>is good</t>
+          <t xml:space="preserve"> is a good company</t>
         </is>
       </c>
     </row>
@@ -467,7 +467,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>invalid Value</t>
+          <t>ALARM!</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>is bad</t>
+          <t>ALARM!</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>invalid Value</t>
+          <t>ALARM!</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>is good</t>
+          <t xml:space="preserve"> is a good company</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>is good</t>
+          <t xml:space="preserve"> is a good company</t>
         </is>
       </c>
     </row>
